--- a/exampleControlSheets/caseStudy.xlsx
+++ b/exampleControlSheets/caseStudy.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\Documents\School\Masters\DylanLeveille\WebToolCSAT\exampleControlSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9C2464-CDB5-4465-924F-CB9676D58EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3AD280-D4E7-43E1-8D99-6E715E0337E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="72">
   <si>
     <t>Control</t>
   </si>
@@ -235,16 +246,60 @@
   </si>
   <si>
     <t>ProcessingSystem</t>
+  </si>
+  <si>
+    <r>
+      <t>Medium,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>High</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Low</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Medium</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -569,9 +624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H46" sqref="H46"/>
+      <selection pane="topRight" activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1897,7 +1952,7 @@
         <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>61</v>
@@ -2380,7 +2435,7 @@
         <v>62</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>61</v>
@@ -3822,7 +3877,7 @@
         <v>62</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>61</v>
@@ -4200,19 +4255,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>